--- a/cost/assets/formatsXlsx/Carga_Nomina.xlsx
+++ b/cost/assets/formatsXlsx/Carga_Nomina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\apps\htdocs\tezlikv2\app\assets\formatsXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE0BE1-BE26-41B4-9144-772C7C0BDCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4A97F-906E-44C7-B35E-499D355B66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +937,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/cost/assets/formatsXlsx/Carga_Nomina.xlsx
+++ b/cost/assets/formatsXlsx/Carga_Nomina.xlsx
@@ -1,25 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50D4BF-BEBA-4E09-BAE0-B3373A6A47D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sergio Eduardo Velandia Obando</author>
+    <author>Daniel Ledesma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{51ED064C-ACA7-441C-B333-167F1DBDA71A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus: Teenus: No modifique los encabezados. Son necesarios al momento de importar los datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{6F57CD02-2AB7-4537-AE43-4A41D975C8D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus:
+Seleccione si el valor de otros ingresos es prestacional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{42CF4B6A-9C6E-474D-88EA-EE2A11673A3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus:
+Seleccione el tipo de riesgo desplegando la lista</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{964CCEE0-5B51-4A17-9E27-15C2AEAF5F91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus:
+Seleccione el tipo de nomina desplegando la lista</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{DB973A2F-D191-48B1-A799-AF8E48ED5DD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus:
+Si el tipo de nomina es manual ingrese el valor del porcentaje por ejemplo 40% es igual a 40 de lo contrario ingrese en el campo '1', la plataforma registrara estos datos automaticamente.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>nombres_y_apellidos</t>
+    <t>proceso</t>
   </si>
   <si>
-    <t>proceso</t>
+    <t>nombres_y_apellidos</t>
   </si>
   <si>
     <t>salario_basico</t>
@@ -37,16 +140,10 @@
     <t>otros_ingresos</t>
   </si>
   <si>
-    <t>prestacional</t>
-  </si>
-  <si>
     <t>horas_trabajo_x_dia</t>
   </si>
   <si>
     <t>dias_trabajo_x_mes</t>
-  </si>
-  <si>
-    <t>tipo_riesgo</t>
   </si>
   <si>
     <t>tipo_nomina</t>
@@ -54,13 +151,23 @@
   <si>
     <t>factor</t>
   </si>
+  <si>
+    <t>prestacional</t>
+  </si>
+  <si>
+    <t>tipo_riesgo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,9 +177,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -93,10 +213,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -105,7 +225,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -113,37 +233,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -152,32 +259,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -186,12 +275,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,111 +302,482 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:M9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:M9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <tableColumns count="13">
-    <tableColumn name="nombres_y_apellidos" id="1"/>
-    <tableColumn name="proceso" id="2"/>
-    <tableColumn name="salario_basico" id="3"/>
-    <tableColumn name="transporte" id="4"/>
-    <tableColumn name="dotaciones" id="5"/>
-    <tableColumn name="horas_extras" id="6"/>
-    <tableColumn name="otros_ingresos" id="7"/>
-    <tableColumn name="prestacional" id="8"/>
-    <tableColumn name="horas_trabajo_x_dia" id="9"/>
-    <tableColumn name="dias_trabajo_x_mes" id="10"/>
-    <tableColumn name="tipo_riesgo" id="11"/>
-    <tableColumn name="tipo_nomina" id="12"/>
-    <tableColumn name="factor" id="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombres_y_apellidos" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="proceso" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="salario_basico" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="transporte" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="dotaciones" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="horas_extras" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="otros_ingresos" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{FEE83216-A916-45D3-BB16-C77FAA648A2C}" name="prestacional" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="horas_trabajo_x_dia" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="dias_trabajo_x_mes" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{293FBDB4-BD6E-41A6-9BB0-04DA488FAF83}" name="tipo_riesgo" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="tipo_nomina" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="factor" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,74 +812,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,53 +937,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +994,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +1003,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +1012,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,10 +1020,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -544,7 +1052,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -557,12 +1065,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -580,37 +1089,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -628,148 +1135,167 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="11"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="3"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="2"/>
     </row>
   </sheetData>
+  <dataConsolidate function="count">
+    <dataRefs count="2">
+      <dataRef name="No"/>
+      <dataRef name="SI"/>
+    </dataRefs>
+  </dataConsolidate>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9" xr:uid="{4489C91F-EF4F-40D1-B0A2-EAB220B4C274}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9" xr:uid="{E4B605D6-B04A-4D1E-AEFC-5F27B64421F4}">
+      <formula1>"Nomina,Servicios,Manual"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{8ADA0935-FBD0-46A3-95DC-BD7B2F7C22B8}">
+      <formula1>"Clase I,Clase II, Clase III, Clase IV, Clase V"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>